--- a/academycity/data/avic/datasets/excel/conference/output/HighTech/2018_HighTech_o.xlsx
+++ b/academycity/data/avic/datasets/excel/conference/output/HighTech/2018_HighTech_o.xlsx
@@ -1999,7 +1999,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C126" t="n">
@@ -3798,7 +3798,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C126" t="n">
@@ -5597,7 +5597,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C126" t="n">
@@ -8527,7 +8527,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C126" t="n">
